--- a/biology/Histoire de la zoologie et de la botanique/Adolf_Nadig/Adolf_Nadig.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolf_Nadig/Adolf_Nadig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolf Nadig, né à Milan en 1910 et mort à Coire en 2003, est un entomologiste amateur suisse spécialiste des orthoptères. Il est le fils d'Adolf Nadig, homme politique et naturaliste suisse né en 1877 et mort en 1960. Membre correspondant du Muséum d'histoire naturelle de Genève à partir de mai 1999, sa collection comptant plus de 100 000 spécimens du Paléarctique occidental y est déposée depuis 2001[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolf Nadig, né à Milan en 1910 et mort à Coire en 2003, est un entomologiste amateur suisse spécialiste des orthoptères. Il est le fils d'Adolf Nadig, homme politique et naturaliste suisse né en 1877 et mort en 1960. Membre correspondant du Muséum d'histoire naturelle de Genève à partir de mai 1999, sa collection comptant plus de 100 000 spécimens du Paléarctique occidental y est déposée depuis 2001.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la révision des types effectuée par John Hollier en 2014, Adolf Nadig a décrit les 32 taxons suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la révision des types effectuée par John Hollier en 2014, Adolf Nadig a décrit les 32 taxons suivants :
 Anonconotus baracunensis Nadig, 1987
 Anonconotus italoaustriacus Nadig, 1987
 Antaxius pedestris apuanus Nadig, 1958
